--- a/sensitivity_analysis/Sensitivity.xlsx
+++ b/sensitivity_analysis/Sensitivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\GitHub\Optim-Project\sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3823CAA-4650-43F6-AD88-E197D4A2A1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D150C-1221-4E52-BC66-6CDEA20DABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{FBE365D9-09CA-4374-A232-FE261CD69B4F}"/>
   </bookViews>
@@ -206,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -246,11 +246,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -266,6 +266,1179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pb/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$I$6:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>703.57557456918778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>861.86540425242981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>521.32696218933268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371.17735922435855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343.63046828867624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249.13384762860701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE81-4EB0-956B-DE8A244113F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1404000432"/>
+        <c:axId val="1405919904"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hrF/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A$6:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$J$6:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22990229139342191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22803819595304028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10305795217241426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4236945967711512E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4909905655917066E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3406082362401245E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE81-4EB0-956B-DE8A244113F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>avGF/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A$6:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$K$6:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.73568733245895013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72972222704972878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32978544695172562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20555822709667684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17571169809893461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10689946355968398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE81-4EB0-956B-DE8A244113F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1403995632"/>
+        <c:axId val="1405924864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1404000432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405919904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405919904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404000432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1405924864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403995632"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1403995632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1405924864"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B6F9B2-B473-91E9-1922-8556143AA744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,7 +1802,7 @@
         <v>385</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C29" si="0">B2+45</f>
+        <f t="shared" ref="C2" si="0">B2+45</f>
         <v>430</v>
       </c>
       <c r="D2">
@@ -653,11 +1826,11 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">B2+25</f>
+        <f t="shared" ref="B3:B37" si="1">B2+25</f>
         <v>410</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">B3+45</f>
+        <f t="shared" ref="C3:C37" si="2">B3+45</f>
         <v>455</v>
       </c>
       <c r="D3">
@@ -1638,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ECAB25-6251-4C4E-8F5D-3BB454F9DC59}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,14 +2832,14 @@
       <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1678,13 +2851,13 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1732,223 +2905,223 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>92</v>
-      </c>
-      <c r="B6" s="4">
-        <v>9300</v>
-      </c>
-      <c r="C6" s="3">
-        <v>172.12434363365099</v>
+      <c r="A6" s="3">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>250925</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.058620929718</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
         <f>($B$4*A6^2)+(2*$B$4+A6+$B$4*A6)</f>
-        <v>42882</v>
+        <v>7077</v>
       </c>
       <c r="F6" s="1">
         <f>A6/16</f>
-        <v>5.75</v>
+        <v>2.3125</v>
       </c>
       <c r="G6" s="1">
         <f>A6/$B$4</f>
-        <v>18.399999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
         <f>E6/C6</f>
-        <v>249.13384762860701</v>
+        <v>703.57557456918778</v>
       </c>
       <c r="J6" s="1">
         <f>F6/C6</f>
-        <v>3.3406082362401245E-2</v>
+        <v>0.22990229139342191</v>
       </c>
       <c r="K6" s="1">
         <f>G6/C6</f>
-        <v>0.10689946355968398</v>
+        <v>0.73568733245895013</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>77</v>
-      </c>
-      <c r="B7" s="4">
-        <v>25605</v>
-      </c>
-      <c r="C7" s="3">
-        <v>87.643567085266099</v>
-      </c>
+      <c r="A7" s="3">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3">
+        <v>155150</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12.607537031173701</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1">
         <f>($B$4*A7^2)+(2*$B$4+A7+$B$4*A7)</f>
-        <v>30117</v>
+        <v>10866</v>
       </c>
       <c r="F7" s="1">
         <f>A7/16</f>
-        <v>4.8125</v>
+        <v>2.875</v>
       </c>
       <c r="G7" s="1">
         <f>A7/$B$4</f>
-        <v>15.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
         <f>E7/C7</f>
-        <v>343.63046828867624</v>
+        <v>861.86540425242981</v>
       </c>
       <c r="J7" s="1">
         <f>F7/C7</f>
-        <v>5.4909905655917066E-2</v>
+        <v>0.22803819595304028</v>
       </c>
       <c r="K7" s="1">
         <f>G7/C7</f>
-        <v>0.17571169809893461</v>
+        <v>0.72972222704972878</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>37965</v>
-      </c>
-      <c r="C8" s="3">
-        <v>69.080183267593299</v>
-      </c>
+      <c r="A8" s="3">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3">
+        <v>64800</v>
+      </c>
+      <c r="C8" s="2">
+        <v>37.6002037525177</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
         <f>($B$4*A8^2)+(2*$B$4+A8+$B$4*A8)</f>
-        <v>25641</v>
+        <v>19602</v>
       </c>
       <c r="F8" s="1">
         <f>A8/16</f>
-        <v>4.4375</v>
+        <v>3.875</v>
       </c>
       <c r="G8" s="1">
         <f>A8/$B$4</f>
-        <v>14.2</v>
+        <v>12.4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
         <f>E8/C8</f>
-        <v>371.17735922435855</v>
+        <v>521.32696218933268</v>
       </c>
       <c r="J8" s="1">
         <f>F8/C8</f>
-        <v>6.4236945967711512E-2</v>
+        <v>0.10305795217241426</v>
       </c>
       <c r="K8" s="1">
         <f>G8/C8</f>
-        <v>0.20555822709667684</v>
+        <v>0.32978544695172562</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>62</v>
-      </c>
-      <c r="B9" s="4">
-        <v>64800</v>
-      </c>
-      <c r="C9" s="3">
-        <v>37.6002037525177</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="A9">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>37965</v>
+      </c>
+      <c r="C9" s="2">
+        <v>69.080183267593299</v>
+      </c>
       <c r="E9" s="1">
         <f>($B$4*A9^2)+(2*$B$4+A9+$B$4*A9)</f>
-        <v>19602</v>
+        <v>25641</v>
       </c>
       <c r="F9" s="1">
         <f>A9/16</f>
-        <v>3.875</v>
+        <v>4.4375</v>
       </c>
       <c r="G9" s="1">
         <f>A9/$B$4</f>
-        <v>12.4</v>
+        <v>14.2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
         <f>E9/C9</f>
-        <v>521.32696218933268</v>
+        <v>371.17735922435855</v>
       </c>
       <c r="J9" s="1">
         <f>F9/C9</f>
-        <v>0.10305795217241426</v>
+        <v>6.4236945967711512E-2</v>
       </c>
       <c r="K9" s="1">
         <f>G9/C9</f>
-        <v>0.32978544695172562</v>
+        <v>0.20555822709667684</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4">
-        <v>155150</v>
-      </c>
-      <c r="C10" s="3">
-        <v>12.607537031173701</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="A10" s="3">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25605</v>
+      </c>
+      <c r="C10" s="2">
+        <v>87.643567085266099</v>
+      </c>
       <c r="E10" s="1">
         <f>($B$4*A10^2)+(2*$B$4+A10+$B$4*A10)</f>
-        <v>10866</v>
+        <v>30117</v>
       </c>
       <c r="F10" s="1">
         <f>A10/16</f>
-        <v>2.875</v>
+        <v>4.8125</v>
       </c>
       <c r="G10" s="1">
         <f>A10/$B$4</f>
-        <v>9.1999999999999993</v>
+        <v>15.4</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
         <f>E10/C10</f>
-        <v>861.86540425242981</v>
+        <v>343.63046828867624</v>
       </c>
       <c r="J10" s="1">
         <f>F10/C10</f>
-        <v>0.22803819595304028</v>
+        <v>5.4909905655917066E-2</v>
       </c>
       <c r="K10" s="1">
         <f>G10/C10</f>
-        <v>0.72972222704972878</v>
+        <v>0.17571169809893461</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4">
-        <v>250925</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10.058620929718</v>
+      <c r="A11" s="3">
+        <v>92</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9300</v>
+      </c>
+      <c r="C11" s="2">
+        <v>172.12434363365099</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>($B$4*A11^2)+(2*$B$4+A11+$B$4*A11)</f>
-        <v>7077</v>
+        <v>42882</v>
       </c>
       <c r="F11" s="1">
         <f>A11/16</f>
-        <v>2.3125</v>
+        <v>5.75</v>
       </c>
       <c r="G11" s="1">
         <f>A11/$B$4</f>
-        <v>7.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <f>E11/C11</f>
-        <v>703.57557456918778</v>
+        <v>249.13384762860701</v>
       </c>
       <c r="J11" s="1">
         <f>F11/C11</f>
-        <v>0.22990229139342191</v>
+        <v>3.3406082362401245E-2</v>
       </c>
       <c r="K11" s="1">
         <f>G11/C11</f>
-        <v>0.73568733245895013</v>
+        <v>0.10689946355968398</v>
       </c>
     </row>
   </sheetData>
@@ -1957,5 +3130,6 @@
     <mergeCell ref="E2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sensitivity_analysis/Sensitivity.xlsx
+++ b/sensitivity_analysis/Sensitivity.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\GitHub\Optim-Project\sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D150C-1221-4E52-BC66-6CDEA20DABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1233C17-43A9-45EB-A9A5-6CB6B46AEE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{FBE365D9-09CA-4374-A232-FE261CD69B4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{FBE365D9-09CA-4374-A232-FE261CD69B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Var FN" sheetId="2" r:id="rId2"/>
+    <sheet name="Var TAT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>#1</t>
   </si>
@@ -147,9 +148,6 @@
     <t>#36</t>
   </si>
   <si>
-    <t>#37</t>
-  </si>
-  <si>
     <t>flights</t>
   </si>
   <si>
@@ -199,6 +197,12 @@
   </si>
   <si>
     <t>TAT [min]</t>
+  </si>
+  <si>
+    <t>t_arr [min]</t>
+  </si>
+  <si>
+    <t>10 (batch)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +226,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,10 +268,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,8 +281,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -311,7 +345,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$6:$A$11</c:f>
+              <c:f>'Var FN'!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -338,7 +372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$I$6:$I$11</c:f>
+              <c:f>'Var FN'!$I$6:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -423,7 +457,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$6:$A$13</c:f>
+              <c:f>'Var FN'!$A$6:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -450,7 +484,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$J$6:$J$11</c:f>
+              <c:f>'Var FN'!$J$6:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -522,7 +556,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$6:$A$13</c:f>
+              <c:f>'Var FN'!$A$6:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -549,7 +583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$K$6:$K$11</c:f>
+              <c:f>'Var FN'!$K$6:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -769,6 +803,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1405924864"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1758,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6E17EE-9F65-4310-88C2-32FB4AD13122}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,8 +1809,8 @@
         <v>360</v>
       </c>
       <c r="C1">
-        <f>B1+45</f>
-        <v>405</v>
+        <f>B1+120</f>
+        <v>480</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1798,12 +1833,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>B1+25</f>
-        <v>385</v>
+        <f>B1+24</f>
+        <v>384</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2" si="0">B2+45</f>
-        <v>430</v>
+        <f>B2+120</f>
+        <v>504</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1826,12 +1861,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B37" si="1">B2+25</f>
-        <v>410</v>
+        <f t="shared" ref="B3:B49" si="0">B2+24</f>
+        <v>408</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C37" si="2">B3+45</f>
-        <v>455</v>
+        <f t="shared" ref="C3:C49" si="1">B3+120</f>
+        <v>528</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1854,12 +1889,12 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>435</v>
+        <f t="shared" si="0"/>
+        <v>432</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
-        <v>480</v>
+        <f t="shared" si="1"/>
+        <v>552</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1882,12 +1917,12 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>460</v>
+        <f t="shared" si="0"/>
+        <v>456</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>505</v>
+        <f t="shared" si="1"/>
+        <v>576</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1910,12 +1945,12 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>485</v>
+        <f t="shared" si="0"/>
+        <v>480</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
-        <v>530</v>
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1938,12 +1973,12 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>510</v>
+        <f t="shared" si="0"/>
+        <v>504</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>555</v>
+        <f t="shared" si="1"/>
+        <v>624</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1966,12 +2001,12 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>535</v>
+        <f t="shared" si="0"/>
+        <v>528</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>580</v>
+        <f t="shared" si="1"/>
+        <v>648</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1994,12 +2029,12 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>560</v>
+        <f t="shared" si="0"/>
+        <v>552</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>605</v>
+        <f t="shared" si="1"/>
+        <v>672</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2022,12 +2057,12 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>585</v>
+        <f t="shared" si="0"/>
+        <v>576</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>630</v>
+        <f t="shared" si="1"/>
+        <v>696</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2050,12 +2085,12 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>610</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>655</v>
+        <f t="shared" si="1"/>
+        <v>720</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2078,12 +2113,12 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>635</v>
+        <f t="shared" si="0"/>
+        <v>624</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>680</v>
+        <f t="shared" si="1"/>
+        <v>744</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2106,12 +2141,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>660</v>
+        <f t="shared" si="0"/>
+        <v>648</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>705</v>
+        <f t="shared" si="1"/>
+        <v>768</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2134,12 +2169,12 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>685</v>
+        <f t="shared" si="0"/>
+        <v>672</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>730</v>
+        <f t="shared" si="1"/>
+        <v>792</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2162,12 +2197,12 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>710</v>
+        <f t="shared" si="0"/>
+        <v>696</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>755</v>
+        <f t="shared" si="1"/>
+        <v>816</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2190,12 +2225,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>735</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>780</v>
+        <f t="shared" si="1"/>
+        <v>840</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2218,12 +2253,12 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>760</v>
+        <f t="shared" si="0"/>
+        <v>744</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>805</v>
+        <f t="shared" si="1"/>
+        <v>864</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2246,12 +2281,12 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>785</v>
+        <f t="shared" si="0"/>
+        <v>768</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>830</v>
+        <f t="shared" si="1"/>
+        <v>888</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2274,12 +2309,12 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>810</v>
+        <f t="shared" si="0"/>
+        <v>792</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>855</v>
+        <f t="shared" si="1"/>
+        <v>912</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2302,12 +2337,12 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>835</v>
+        <f t="shared" si="0"/>
+        <v>816</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>880</v>
+        <f t="shared" si="1"/>
+        <v>936</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2330,12 +2365,12 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>860</v>
+        <f t="shared" si="0"/>
+        <v>840</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>905</v>
+        <f t="shared" si="1"/>
+        <v>960</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2358,12 +2393,12 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>885</v>
+        <f t="shared" si="0"/>
+        <v>864</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>930</v>
+        <f t="shared" si="1"/>
+        <v>984</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2386,12 +2421,12 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>910</v>
+        <f t="shared" si="0"/>
+        <v>888</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>955</v>
+        <f t="shared" si="1"/>
+        <v>1008</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2414,12 +2449,12 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>935</v>
+        <f t="shared" si="0"/>
+        <v>912</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
-        <v>980</v>
+        <f t="shared" si="1"/>
+        <v>1032</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2442,12 +2477,12 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
-        <v>960</v>
+        <f t="shared" si="0"/>
+        <v>936</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>1005</v>
+        <f t="shared" si="1"/>
+        <v>1056</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2470,12 +2505,12 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
-        <v>985</v>
+        <f t="shared" si="0"/>
+        <v>960</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>1030</v>
+        <f t="shared" si="1"/>
+        <v>1080</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2498,12 +2533,12 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
-        <v>1010</v>
+        <f t="shared" si="0"/>
+        <v>984</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>1055</v>
+        <f t="shared" si="1"/>
+        <v>1104</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2526,12 +2561,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
-        <v>1035</v>
+        <f t="shared" si="0"/>
+        <v>1008</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>1080</v>
+        <f t="shared" si="1"/>
+        <v>1128</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2554,12 +2589,12 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>1060</v>
+        <f t="shared" si="0"/>
+        <v>1032</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>1105</v>
+        <f t="shared" si="1"/>
+        <v>1152</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2582,12 +2617,12 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
-        <v>1085</v>
+        <f t="shared" si="0"/>
+        <v>1056</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>1130</v>
+        <f t="shared" si="1"/>
+        <v>1176</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2610,12 +2645,12 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
-        <v>1110</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
-        <v>1155</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2638,12 +2673,12 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>1135</v>
+        <f t="shared" si="0"/>
+        <v>1104</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>1180</v>
+        <f t="shared" si="1"/>
+        <v>1224</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2666,12 +2701,12 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
-        <v>1160</v>
+        <f t="shared" si="0"/>
+        <v>1128</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
-        <v>1205</v>
+        <f t="shared" si="1"/>
+        <v>1248</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2694,12 +2729,12 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
-        <v>1185</v>
+        <f t="shared" si="0"/>
+        <v>1152</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
-        <v>1230</v>
+        <f t="shared" si="1"/>
+        <v>1272</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2722,12 +2757,12 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>1210</v>
+        <f t="shared" si="0"/>
+        <v>1176</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
-        <v>1255</v>
+        <f t="shared" si="1"/>
+        <v>1296</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2750,12 +2785,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
-        <v>1235</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>1280</v>
+        <f t="shared" si="1"/>
+        <v>1320</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2770,34 +2805,6 @@
         <v>3</v>
       </c>
       <c r="H36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>1260</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="2"/>
-        <v>1305</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
         <v>4</v>
       </c>
     </row>
@@ -2811,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ECAB25-6251-4C4E-8F5D-3BB454F9DC59}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2824,16 +2831,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1">
         <v>360</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2843,16 +2850,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1320</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2861,7 +2868,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -2869,7 +2876,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2877,31 +2884,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2914,30 +2924,32 @@
       <c r="C6" s="2">
         <v>10.058620929718</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <f>($B$4*A6^2)+(2*$B$4+A6+$B$4*A6)</f>
+      <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E11" si="0">($B$4*A6^2)+(2*$B$4+A6+$B$4*A6)</f>
         <v>7077</v>
       </c>
       <c r="F6" s="1">
-        <f>A6/16</f>
+        <f t="shared" ref="F6:F11" si="1">A6/16</f>
         <v>2.3125</v>
       </c>
       <c r="G6" s="1">
-        <f>A6/$B$4</f>
+        <f t="shared" ref="G6:G11" si="2">A6/$B$4</f>
         <v>7.4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
-        <f>E6/C6</f>
+        <f t="shared" ref="I6:I11" si="3">E6/C6</f>
         <v>703.57557456918778</v>
       </c>
       <c r="J6" s="1">
-        <f>F6/C6</f>
+        <f t="shared" ref="J6:J11" si="4">F6/C6</f>
         <v>0.22990229139342191</v>
       </c>
       <c r="K6" s="1">
-        <f>G6/C6</f>
+        <f t="shared" ref="K6:K11" si="5">G6/C6</f>
         <v>0.73568733245895013</v>
       </c>
     </row>
@@ -2951,30 +2963,32 @@
       <c r="C7" s="2">
         <v>12.607537031173701</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <f>($B$4*A7^2)+(2*$B$4+A7+$B$4*A7)</f>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>10866</v>
       </c>
       <c r="F7" s="1">
-        <f>A7/16</f>
+        <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
       <c r="G7" s="1">
-        <f>A7/$B$4</f>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <f>E7/C7</f>
+        <f t="shared" si="3"/>
         <v>861.86540425242981</v>
       </c>
       <c r="J7" s="1">
-        <f>F7/C7</f>
+        <f t="shared" si="4"/>
         <v>0.22803819595304028</v>
       </c>
       <c r="K7" s="1">
-        <f>G7/C7</f>
+        <f t="shared" si="5"/>
         <v>0.72972222704972878</v>
       </c>
     </row>
@@ -2988,30 +3002,32 @@
       <c r="C8" s="2">
         <v>37.6002037525177</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <f>($B$4*A8^2)+(2*$B$4+A8+$B$4*A8)</f>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>19602</v>
       </c>
       <c r="F8" s="1">
-        <f>A8/16</f>
+        <f t="shared" si="1"/>
         <v>3.875</v>
       </c>
       <c r="G8" s="1">
-        <f>A8/$B$4</f>
+        <f t="shared" si="2"/>
         <v>12.4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <f>E8/C8</f>
+        <f t="shared" si="3"/>
         <v>521.32696218933268</v>
       </c>
       <c r="J8" s="1">
-        <f>F8/C8</f>
+        <f t="shared" si="4"/>
         <v>0.10305795217241426</v>
       </c>
       <c r="K8" s="1">
-        <f>G8/C8</f>
+        <f t="shared" si="5"/>
         <v>0.32978544695172562</v>
       </c>
     </row>
@@ -3025,29 +3041,32 @@
       <c r="C9" s="2">
         <v>69.080183267593299</v>
       </c>
-      <c r="E9" s="1">
-        <f>($B$4*A9^2)+(2*$B$4+A9+$B$4*A9)</f>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>25641</v>
       </c>
       <c r="F9" s="1">
-        <f>A9/16</f>
+        <f t="shared" si="1"/>
         <v>4.4375</v>
       </c>
       <c r="G9" s="1">
-        <f>A9/$B$4</f>
+        <f t="shared" si="2"/>
         <v>14.2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <f>E9/C9</f>
+        <f t="shared" si="3"/>
         <v>371.17735922435855</v>
       </c>
       <c r="J9" s="1">
-        <f>F9/C9</f>
+        <f t="shared" si="4"/>
         <v>6.4236945967711512E-2</v>
       </c>
       <c r="K9" s="1">
-        <f>G9/C9</f>
+        <f t="shared" si="5"/>
         <v>0.20555822709667684</v>
       </c>
     </row>
@@ -3061,29 +3080,32 @@
       <c r="C10" s="2">
         <v>87.643567085266099</v>
       </c>
-      <c r="E10" s="1">
-        <f>($B$4*A10^2)+(2*$B$4+A10+$B$4*A10)</f>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>30117</v>
       </c>
       <c r="F10" s="1">
-        <f>A10/16</f>
+        <f t="shared" si="1"/>
         <v>4.8125</v>
       </c>
       <c r="G10" s="1">
-        <f>A10/$B$4</f>
+        <f t="shared" si="2"/>
         <v>15.4</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f>E10/C10</f>
+        <f t="shared" si="3"/>
         <v>343.63046828867624</v>
       </c>
       <c r="J10" s="1">
-        <f>F10/C10</f>
+        <f t="shared" si="4"/>
         <v>5.4909905655917066E-2</v>
       </c>
       <c r="K10" s="1">
-        <f>G10/C10</f>
+        <f t="shared" si="5"/>
         <v>0.17571169809893461</v>
       </c>
     </row>
@@ -3097,30 +3119,32 @@
       <c r="C11" s="2">
         <v>172.12434363365099</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <f>($B$4*A11^2)+(2*$B$4+A11+$B$4*A11)</f>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>42882</v>
       </c>
       <c r="F11" s="1">
-        <f>A11/16</f>
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
       <c r="G11" s="1">
-        <f>A11/$B$4</f>
+        <f t="shared" si="2"/>
         <v>18.399999999999999</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <f>E11/C11</f>
+        <f t="shared" si="3"/>
         <v>249.13384762860701</v>
       </c>
       <c r="J11" s="1">
-        <f>F11/C11</f>
+        <f t="shared" si="4"/>
         <v>3.3406082362401245E-2</v>
       </c>
       <c r="K11" s="1">
-        <f>G11/C11</f>
+        <f t="shared" si="5"/>
         <v>0.10689946355968398</v>
       </c>
     </row>
@@ -3132,4 +3156,678 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27C24C6-B090-48F2-A250-F5E5574A4290}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>360</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>1320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>62750</v>
+      </c>
+      <c r="D5" s="2">
+        <v>189.26591753959599</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <f>($B$3*A5^2)+(2*$B$3+A5+$B$3*A5)</f>
+        <v>44754</v>
+      </c>
+      <c r="H5" s="1">
+        <f>A5/16</f>
+        <v>5.875</v>
+      </c>
+      <c r="I5" s="1">
+        <f>A5/$B$3</f>
+        <v>18.8</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <f>G5/D5</f>
+        <v>236.46095705866904</v>
+      </c>
+      <c r="L5" s="1">
+        <f>H5/D5</f>
+        <v>3.104098231933862E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f>I5/D5</f>
+        <v>9.933114342188358E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>41600</v>
+      </c>
+      <c r="D6" s="2">
+        <v>190.27890229225099</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <f>($B$3*A6^2)+(2*$B$3+A6+$B$3*A6)</f>
+        <v>44754</v>
+      </c>
+      <c r="H6" s="1">
+        <f>A6/16</f>
+        <v>5.875</v>
+      </c>
+      <c r="I6" s="1">
+        <f>A6/$B$3</f>
+        <v>18.8</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <f>G6/D6</f>
+        <v>235.20211363875723</v>
+      </c>
+      <c r="L6" s="1">
+        <f>H6/D6</f>
+        <v>3.0875729937607784E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f>I6/D6</f>
+        <v>9.8802335800344906E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9300</v>
+      </c>
+      <c r="D7" s="2">
+        <v>172.12434363365099</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <f>($B$3*A7^2)+(2*$B$3+A7+$B$3*A7)</f>
+        <v>42882</v>
+      </c>
+      <c r="H7" s="1">
+        <f>A7/16</f>
+        <v>5.75</v>
+      </c>
+      <c r="I7" s="1">
+        <f>A7/$B$3</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <f>G7/D7</f>
+        <v>249.13384762860701</v>
+      </c>
+      <c r="L7" s="1">
+        <f>H7/D7</f>
+        <v>3.3406082362401245E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>I7/D7</f>
+        <v>0.10689946355968398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>8400</v>
+      </c>
+      <c r="D8" s="2">
+        <v>77.886496067047105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G15" si="0">($B$3*A8^2)+(2*$B$3+A8+$B$3*A8)</f>
+        <v>29346</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H15" si="1">A8/16</f>
+        <v>4.75</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I15" si="2">A8/$B$3</f>
+        <v>15.2</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K15" si="3">G8/D8</f>
+        <v>376.77905005173238</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L15" si="4">H8/D8</f>
+        <v>6.0986181685603796E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ref="M8:M15" si="5">I8/D8</f>
+        <v>0.19515578139393214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>19200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24.696978807449302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>16026</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>648.90528209734339</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14171773913270322</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45349676522465027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>12000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15.464514732360801</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>12810</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>828.34800973056042</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2020755293058549</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6466416937787357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>54000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.1679763793945304</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1">
+        <f>($B$3*A11^2)+(2*$B$3+A11+$B$3*A11)</f>
+        <v>6345</v>
+      </c>
+      <c r="H11" s="1">
+        <f>A11/16</f>
+        <v>2.1875</v>
+      </c>
+      <c r="I11" s="1">
+        <f>A11/$B$3</f>
+        <v>7</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <f>G11/D11</f>
+        <v>1227.7532895271027</v>
+      </c>
+      <c r="L11" s="1">
+        <f>H11/D11</f>
+        <v>0.42327979839882379</v>
+      </c>
+      <c r="M11" s="1">
+        <f>I11/D11</f>
+        <v>1.354495354876236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <f>($B$3*A13^2)+(2*$B$3+A13+$B$3*A13)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <f>A13/16</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>A13/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="e">
+        <f>G13/D13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="1" t="e">
+        <f>H13/D13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="1" t="e">
+        <f>I13/D13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <f>($B$3*A14^2)+(2*$B$3+A14+$B$3*A14)</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <f>A14/16</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>A14/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="e">
+        <f>G14/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="1" t="e">
+        <f>H14/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="1" t="e">
+        <f>I14/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <f>($B$3*A15^2)+(2*$B$3+A15+$B$3*A15)</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <f>A15/16</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>A15/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="e">
+        <f>G15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="1" t="e">
+        <f>H15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="1" t="e">
+        <f>I15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>8640</v>
+      </c>
+      <c r="D16" s="2">
+        <v>78.325880527496295</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G19" si="6">($B$3*A16^2)+(2*$B$3+A16+$B$3*A16)</f>
+        <v>29346</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:H19" si="7">A16/16</f>
+        <v>4.75</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16:I19" si="8">A16/$B$3</f>
+        <v>15.2</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16:K19" si="9">G16/D16</f>
+        <v>374.66543372848633</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16:L19" si="10">H16/D16</f>
+        <v>6.0644067682488582E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16:M19" si="11">I16/D16</f>
+        <v>0.19406101658396346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>13500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>34.458872795104902</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="6"/>
+        <v>18370</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <f t="shared" si="9"/>
+        <v>533.09927197065986</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="10"/>
+        <v>0.10882538213881189</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="11"/>
+        <v>0.34824122284419806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>21780</v>
+      </c>
+      <c r="D18" s="2">
+        <v>16.719538927078201</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="6"/>
+        <v>12309</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0625</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="8"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <f t="shared" si="9"/>
+        <v>736.20451219889242</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="10"/>
+        <v>0.18316892668852938</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="11"/>
+        <v>0.58614056540329407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>34560</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.6136212348937899</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1">
+        <f>($B$3*A19^2)+(2*$B$3+A19+$B$3*A19)</f>
+        <v>6706</v>
+      </c>
+      <c r="H19" s="1">
+        <f>A19/16</f>
+        <v>2.25</v>
+      </c>
+      <c r="I19" s="1">
+        <f>A19/$B$3</f>
+        <v>7.2</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <f>G19/D19</f>
+        <v>1194.594312547501</v>
+      </c>
+      <c r="L19" s="1">
+        <f>H19/D19</f>
+        <v>0.40081079678375736</v>
+      </c>
+      <c r="M19" s="1">
+        <f>I19/D19</f>
+        <v>1.2825945497080236</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sensitivity_analysis/Sensitivity.xlsx
+++ b/sensitivity_analysis/Sensitivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\GitHub\Optim-Project\sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1233C17-43A9-45EB-A9A5-6CB6B46AEE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C163063A-610F-4BBC-9040-8844F33F2B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{FBE365D9-09CA-4374-A232-FE261CD69B4F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>#1</t>
   </si>
@@ -203,6 +203,216 @@
   </si>
   <si>
     <t>10 (batch)</t>
+  </si>
+  <si>
+    <t>zwei diagramme wie FN, same delta_t/ batches und delta_t TAT/K</t>
+  </si>
+  <si>
+    <t>Diagramm batches vs delta_t TAT/K flights, obj, t comp</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>#48</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>#58</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>#61</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>#63</t>
+  </si>
+  <si>
+    <t>#64</t>
+  </si>
+  <si>
+    <t>#65</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>#67</t>
+  </si>
+  <si>
+    <t>#68</t>
+  </si>
+  <si>
+    <t>#69</t>
+  </si>
+  <si>
+    <t>#70</t>
+  </si>
+  <si>
+    <t>#71</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>#73</t>
+  </si>
+  <si>
+    <t>#74</t>
+  </si>
+  <si>
+    <t>#75</t>
+  </si>
+  <si>
+    <t>#76</t>
+  </si>
+  <si>
+    <t>#77</t>
+  </si>
+  <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>#79</t>
+  </si>
+  <si>
+    <t>#80</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>#82</t>
+  </si>
+  <si>
+    <t>#83</t>
+  </si>
+  <si>
+    <t>#84</t>
+  </si>
+  <si>
+    <t>#85</t>
+  </si>
+  <si>
+    <t>#86</t>
+  </si>
+  <si>
+    <t>#87</t>
+  </si>
+  <si>
+    <t>#88</t>
+  </si>
+  <si>
+    <t>#89</t>
+  </si>
+  <si>
+    <t>#90</t>
+  </si>
+  <si>
+    <t>#91</t>
+  </si>
+  <si>
+    <t>#92</t>
+  </si>
+  <si>
+    <t>#93</t>
+  </si>
+  <si>
+    <t>#94</t>
+  </si>
+  <si>
+    <t>#95</t>
+  </si>
+  <si>
+    <t>#96</t>
+  </si>
+  <si>
+    <t>#97</t>
+  </si>
+  <si>
+    <t>#98</t>
+  </si>
+  <si>
+    <t>#99</t>
+  </si>
+  <si>
+    <t>#100</t>
+  </si>
+  <si>
+    <t>#101</t>
+  </si>
+  <si>
+    <t>#102</t>
+  </si>
+  <si>
+    <t>obj = efective usage of gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -278,11 +488,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -326,7 +536,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Pb/t</c:v>
+            <c:v>Pb/t in thsnd.</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -377,22 +587,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>703.57557456918778</c:v>
+                  <c:v>0.70357557456918773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>861.86540425242981</c:v>
+                  <c:v>0.86186540425242986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>521.32696218933268</c:v>
+                  <c:v>0.52132696218933272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>371.17735922435855</c:v>
+                  <c:v>0.37117735922435857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343.63046828867624</c:v>
+                  <c:v>0.34363046828867622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.13384762860701</c:v>
+                  <c:v>0.24913384762860702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -404,36 +614,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1404000432"/>
-        <c:axId val="1405919904"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -535,24 +715,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -637,10 +800,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1403995632"/>
-        <c:axId val="1405924864"/>
+        <c:axId val="1404000432"/>
+        <c:axId val="1405919904"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1404000432"/>
@@ -649,6 +811,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> number of flights per day</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -749,14 +971,1465 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a) Pb/t in thsnd.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$K$5:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23646095705866904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23520211363875723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24913384762860702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3767790500517324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64890528209734344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82834800973056044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2277532895271026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C08-4294-A0E6-9AF61A3AF878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>b) Pb/t in thsnd.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$K$13:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2253345467030805E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0191567826440208E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20991338396222842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37466543372848632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53309927197065987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73620451219889238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1945943125475009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C08-4294-A0E6-9AF61A3AF878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>a) hrF/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.104098231933862E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0875729937607784E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3406082362401245E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0986181685603796E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14171773913270322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2020755293058549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42327979839882379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C08-4294-A0E6-9AF61A3AF878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>b) hrF/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$L$13:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1127011955470767E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1711365151582215E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5420725328809814E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0644067682488582E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10882538213881189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18316892668852938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40081079678375736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C08-4294-A0E6-9AF61A3AF878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>a) avGF/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$M$5:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.933114342188358E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8802335800344906E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10689946355968398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19515578139393214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45349676522465027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6466416937787357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.354495354876236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C08-4294-A0E6-9AF61A3AF878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>b) avGF/t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$M$13:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3160643825750646E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2947636848506307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1346321052191389E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19406101658396346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34824122284419806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58614056540329407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2825945497080236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1C08-4294-A0E6-9AF61A3AF878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1497486703"/>
+        <c:axId val="1081862959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1497486703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TAT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081862959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1405924864"/>
+        <c:axId val="1081862959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1497486703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a) Flights</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECAC-490C-9070-24693F42F436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>b) Flights</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ECAC-490C-9070-24693F42F436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1502789407"/>
+        <c:axId val="103560255"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>a) Computation time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>189.26591753959599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190.27890229225099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.12434363365099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.886496067047105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.696978807449302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.464514732360801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1679763793945304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ECAC-490C-9070-24693F42F436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>b) Computation time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$D$13:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2857.0030841827302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1359.6171233653999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.77962636947601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.325880527496295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.458872795104902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.719538927078201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6136212348937899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ECAC-490C-9070-24693F42F436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="214165615"/>
+        <c:axId val="210088799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1502789407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TAT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103560255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103560255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of flights per day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1502789407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="210088799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation time [thsnd. s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -787,28 +2460,498 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1403995632"/>
+        <c:crossAx val="214165615"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1403995632"/>
+        <c:axId val="214165615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1405924864"/>
+        <c:crossAx val="210088799"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>62750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41600</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B6E-4D99-9F51-C9E449D9175A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>b)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Var TAT'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Var TAT'!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B6E-4D99-9F51-C9E449D9175A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="1496086575"/>
+        <c:axId val="208645695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1496086575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TAT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208645695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208645695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496086575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -932,6 +3075,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1082,6 +3345,1554 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1446,9 +5257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>5175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,6 +5279,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>240625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1A172-2C25-8BED-FCBD-5BB2D59947C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>707350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB37B4BD-CC67-FEB3-CA36-1507ACA61F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56274DEC-486F-425E-CB67-5EB8C89214C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1793,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6E17EE-9F65-4310-88C2-32FB4AD13122}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1809,8 +5733,8 @@
         <v>360</v>
       </c>
       <c r="C1">
-        <f>B1+120</f>
-        <v>480</v>
+        <f>B1+45</f>
+        <v>405</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1833,12 +5757,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>B1+24</f>
-        <v>384</v>
+        <f>B1+9</f>
+        <v>369</v>
       </c>
       <c r="C2">
-        <f>B2+120</f>
-        <v>504</v>
+        <f>B2+45</f>
+        <v>414</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1861,12 +5785,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B49" si="0">B2+24</f>
-        <v>408</v>
+        <f t="shared" ref="B3:B66" si="0">B2+9</f>
+        <v>378</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C49" si="1">B3+120</f>
-        <v>528</v>
+        <f t="shared" ref="C3:C66" si="1">B3+45</f>
+        <v>423</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1890,11 +5814,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1918,11 +5842,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>441</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1946,11 +5870,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>405</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1974,11 +5898,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>459</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2002,11 +5926,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>648</v>
+        <v>468</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2030,11 +5954,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>672</v>
+        <v>477</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2058,11 +5982,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>441</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>486</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2086,11 +6010,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2114,11 +6038,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>459</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>504</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2142,11 +6066,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>648</v>
+        <v>468</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>513</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2170,11 +6094,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>672</v>
+        <v>477</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>522</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2198,11 +6122,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>486</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>531</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2226,11 +6150,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2254,11 +6178,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>504</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>549</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2282,11 +6206,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>768</v>
+        <v>513</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>888</v>
+        <v>558</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2310,11 +6234,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>792</v>
+        <v>522</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>567</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2338,11 +6262,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>531</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>576</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2366,11 +6290,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>585</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2394,11 +6318,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>864</v>
+        <v>549</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>594</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2422,11 +6346,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>888</v>
+        <v>558</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>603</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2450,11 +6374,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>912</v>
+        <v>567</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>1032</v>
+        <v>612</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2478,11 +6402,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>936</v>
+        <v>576</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>1056</v>
+        <v>621</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2506,11 +6430,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>585</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>630</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2534,11 +6458,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>984</v>
+        <v>594</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>1104</v>
+        <v>639</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2562,11 +6486,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>603</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>1128</v>
+        <v>648</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2590,11 +6514,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>612</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>657</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2618,11 +6542,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1056</v>
+        <v>621</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1176</v>
+        <v>666</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2646,11 +6570,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>630</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>675</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2674,11 +6598,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>639</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>1224</v>
+        <v>684</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2702,11 +6626,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>648</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>1248</v>
+        <v>693</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2730,11 +6654,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1152</v>
+        <v>657</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1272</v>
+        <v>702</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2758,11 +6682,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1176</v>
+        <v>666</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>711</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2786,11 +6710,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>675</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>720</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2805,6 +6729,1854 @@
         <v>3</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>684</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>702</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>747</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>711</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>774</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>792</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>756</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>801</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>774</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>819</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>783</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>828</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>837</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>801</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>846</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>819</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>882</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>891</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>855</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>909</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>873</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>918</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>882</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>927</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>891</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>936</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>954</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>918</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>963</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>927</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>972</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>981</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="2">B66+9</f>
+        <v>954</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C102" si="3">B67+45</f>
+        <v>999</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>963</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>1017</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>981</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>1026</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>1044</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>1053</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>1017</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>1071</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>1035</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1044</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>1089</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>1062</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>1107</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1071</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>1116</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>1080</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>1089</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>1134</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>1098</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>1143</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1107</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>1152</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>1116</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>1161</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>1134</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>1179</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>1143</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>1188</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>1152</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>1197</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>1161</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>1206</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>1215</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>1179</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>1188</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>1233</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>1197</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>1242</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>1206</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>1251</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>1215</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>1224</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>1269</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>1233</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>1278</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>1242</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>1287</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>1251</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>1296</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>1305</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>1269</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>1314</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
         <v>4</v>
       </c>
     </row>
@@ -2816,10 +8588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ECAB25-6251-4C4E-8F5D-3BB454F9DC59}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2839,14 +8611,14 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -2858,13 +8630,13 @@
       <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2941,15 +8713,15 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I11" si="3">E6/C6</f>
-        <v>703.57557456918778</v>
+        <f>(E6/C6)/1000</f>
+        <v>0.70357557456918773</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J11" si="4">F6/C6</f>
+        <f t="shared" ref="J6:J11" si="3">F6/C6</f>
         <v>0.22990229139342191</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K11" si="5">G6/C6</f>
+        <f t="shared" ref="K6:K11" si="4">G6/C6</f>
         <v>0.73568733245895013</v>
       </c>
     </row>
@@ -2980,15 +8752,15 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
+        <f t="shared" ref="I7:I11" si="5">(E7/C7)/1000</f>
+        <v>0.86186540425242986</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>861.86540425242981</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0.22803819595304028</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>0.22803819595304028</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="5"/>
         <v>0.72972222704972878</v>
       </c>
     </row>
@@ -3019,15 +8791,15 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52132696218933272</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>521.32696218933268</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0.10305795217241426</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>0.10305795217241426</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="5"/>
         <v>0.32978544695172562</v>
       </c>
     </row>
@@ -3058,15 +8830,15 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.37117735922435857</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>371.17735922435855</v>
-      </c>
-      <c r="J9" s="1">
+        <v>6.4236945967711512E-2</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>6.4236945967711512E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="5"/>
         <v>0.20555822709667684</v>
       </c>
     </row>
@@ -3097,15 +8869,15 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34363046828867622</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>343.63046828867624</v>
-      </c>
-      <c r="J10" s="1">
+        <v>5.4909905655917066E-2</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>5.4909905655917066E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="5"/>
         <v>0.17571169809893461</v>
       </c>
     </row>
@@ -3136,16 +8908,21 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24913384762860702</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>249.13384762860701</v>
-      </c>
-      <c r="J11" s="1">
+        <v>3.3406082362401245E-2</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>3.3406082362401245E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="5"/>
         <v>0.10689946355968398</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +8937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27C24C6-B090-48F2-A250-F5E5574A4290}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3178,14 +8955,14 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3197,13 +8974,13 @@
       <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3217,7 +8994,7 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
@@ -3238,13 +9015,13 @@
       <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3278,8 +9055,8 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
-        <f>G5/D5</f>
-        <v>236.46095705866904</v>
+        <f>(G5/D5)/1000</f>
+        <v>0.23646095705866904</v>
       </c>
       <c r="L5" s="1">
         <f>H5/D5</f>
@@ -3320,8 +9097,8 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
-        <f>G6/D6</f>
-        <v>235.20211363875723</v>
+        <f t="shared" ref="K6:K11" si="0">(G6/D6)/1000</f>
+        <v>0.23520211363875723</v>
       </c>
       <c r="L6" s="1">
         <f>H6/D6</f>
@@ -3362,8 +9139,8 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>G7/D7</f>
-        <v>249.13384762860701</v>
+        <f t="shared" si="0"/>
+        <v>0.24913384762860702</v>
       </c>
       <c r="L7" s="1">
         <f>H7/D7</f>
@@ -3391,28 +9168,28 @@
         <v>54</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G15" si="0">($B$3*A8^2)+(2*$B$3+A8+$B$3*A8)</f>
+        <f t="shared" ref="G8:G10" si="1">($B$3*A8^2)+(2*$B$3+A8+$B$3*A8)</f>
         <v>29346</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H15" si="1">A8/16</f>
+        <f t="shared" ref="H8:H10" si="2">A8/16</f>
         <v>4.75</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I15" si="2">A8/$B$3</f>
+        <f t="shared" ref="I8:I10" si="3">A8/$B$3</f>
         <v>15.2</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K15" si="3">G8/D8</f>
-        <v>376.77905005173238</v>
+        <f t="shared" si="0"/>
+        <v>0.3767790500517324</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L15" si="4">H8/D8</f>
+        <f t="shared" ref="L8:L10" si="4">H8/D8</f>
         <v>6.0986181685603796E-2</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M15" si="5">I8/D8</f>
+        <f t="shared" ref="M8:M10" si="5">I8/D8</f>
         <v>0.19515578139393214</v>
       </c>
     </row>
@@ -3433,21 +9210,21 @@
         <v>54</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16026</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.2</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
-        <v>648.90528209734339</v>
+        <f t="shared" si="0"/>
+        <v>0.64890528209734344</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
@@ -3475,21 +9252,21 @@
         <v>54</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12810</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.125</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
-        <v>828.34800973056042</v>
+        <f t="shared" si="0"/>
+        <v>0.82834800973056044</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
@@ -3530,8 +9307,8 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
-        <f>G11/D11</f>
-        <v>1227.7532895271027</v>
+        <f t="shared" si="0"/>
+        <v>1.2277532895271026</v>
       </c>
       <c r="L11" s="1">
         <f>H11/D11</f>
@@ -3552,106 +9329,129 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>188</v>
+      </c>
       <c r="B13">
         <v>25</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2857.0030841827302</v>
+      </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="G13" s="1">
         <f>($B$3*A13^2)+(2*$B$3+A13+$B$3*A13)</f>
-        <v>10</v>
+        <v>177858</v>
       </c>
       <c r="H13" s="1">
         <f>A13/16</f>
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="I13" s="1">
         <f>A13/$B$3</f>
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="e">
-        <f>G13/D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="1" t="e">
+      <c r="K13" s="1">
+        <f>(G13/D13)/1000</f>
+        <v>6.2253345467030805E-2</v>
+      </c>
+      <c r="L13" s="1">
         <f>H13/D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="1" t="e">
+        <v>4.1127011955470767E-3</v>
+      </c>
+      <c r="M13" s="1">
         <f>I13/D13</f>
-        <v>#DIV/0!</v>
+        <v>1.3160643825750646E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>156</v>
+      </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="C14">
+        <v>2160</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1359.6171233653999</v>
+      </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="G14" s="1">
         <f>($B$3*A14^2)+(2*$B$3+A14+$B$3*A14)</f>
-        <v>10</v>
+        <v>122626</v>
       </c>
       <c r="H14" s="1">
         <f>A14/16</f>
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="I14" s="1">
         <f>A14/$B$3</f>
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="e">
-        <f>G14/D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="1" t="e">
+      <c r="K14" s="1">
+        <f t="shared" ref="K14:K19" si="6">(G14/D14)/1000</f>
+        <v>9.0191567826440208E-2</v>
+      </c>
+      <c r="L14" s="1">
         <f>H14/D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="1" t="e">
+        <v>7.1711365151582215E-3</v>
+      </c>
+      <c r="M14" s="1">
         <f>I14/D14</f>
-        <v>#DIV/0!</v>
+        <v>2.2947636848506307E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>102</v>
+      </c>
       <c r="B15">
         <v>45</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="3">
+        <v>6120</v>
+      </c>
+      <c r="D15" s="2">
+        <v>250.77962636947601</v>
+      </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="G15" s="1">
         <f>($B$3*A15^2)+(2*$B$3+A15+$B$3*A15)</f>
-        <v>10</v>
+        <v>52642</v>
       </c>
       <c r="H15" s="1">
         <f>A15/16</f>
-        <v>0</v>
+        <v>6.375</v>
       </c>
       <c r="I15" s="1">
         <f>A15/$B$3</f>
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="e">
-        <f>G15/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="1" t="e">
+      <c r="K15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.20991338396222842</v>
+      </c>
+      <c r="L15" s="1">
         <f>H15/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="1" t="e">
+        <v>2.5420725328809814E-2</v>
+      </c>
+      <c r="M15" s="1">
         <f>I15/D15</f>
-        <v>#DIV/0!</v>
+        <v>8.1346321052191389E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -3671,32 +9471,32 @@
         <v>12</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G19" si="6">($B$3*A16^2)+(2*$B$3+A16+$B$3*A16)</f>
+        <f t="shared" ref="G16:G18" si="7">($B$3*A16^2)+(2*$B$3+A16+$B$3*A16)</f>
         <v>29346</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H19" si="7">A16/16</f>
+        <f t="shared" ref="H16:H18" si="8">A16/16</f>
         <v>4.75</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I19" si="8">A16/$B$3</f>
+        <f t="shared" ref="I16:I18" si="9">A16/$B$3</f>
         <v>15.2</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K19" si="9">G16/D16</f>
-        <v>374.66543372848633</v>
+        <f t="shared" si="6"/>
+        <v>0.37466543372848632</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:L19" si="10">H16/D16</f>
+        <f t="shared" ref="L16:L18" si="10">H16/D16</f>
         <v>6.0644067682488582E-2</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" ref="M16:M19" si="11">I16/D16</f>
+        <f t="shared" ref="M16:M18" si="11">I16/D16</f>
         <v>0.19406101658396346</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>60</v>
       </c>
@@ -3713,21 +9513,21 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18370</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1">
-        <f t="shared" si="9"/>
-        <v>533.09927197065986</v>
+        <f t="shared" si="6"/>
+        <v>0.53309927197065987</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="10"/>
@@ -3737,8 +9537,11 @@
         <f t="shared" si="11"/>
         <v>0.34824122284419806</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>49</v>
       </c>
@@ -3755,21 +9558,21 @@
         <v>18</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12309</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0625</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
-        <f t="shared" si="9"/>
-        <v>736.20451219889242</v>
+        <f t="shared" si="6"/>
+        <v>0.73620451219889238</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="10"/>
@@ -3780,7 +9583,7 @@
         <v>0.58614056540329407</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>36</v>
       </c>
@@ -3810,8 +9613,8 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
-        <f>G19/D19</f>
-        <v>1194.594312547501</v>
+        <f t="shared" si="6"/>
+        <v>1.1945943125475009</v>
       </c>
       <c r="L19" s="1">
         <f>H19/D19</f>
@@ -3820,6 +9623,21 @@
       <c r="M19" s="1">
         <f>I19/D19</f>
         <v>1.2825945497080236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3829,5 +9647,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>